--- a/public/import/daily_template Kasir.xlsx
+++ b/public/import/daily_template Kasir.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
@@ -133,18 +133,14 @@
     <t>16.00</t>
   </si>
   <si>
-    <t>2022-06-19</t>
+    <t>2022-08-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,11 +150,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tw Cen MT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,30 +192,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,11 +509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="116.140625" style="1" bestFit="1" customWidth="1"/>
@@ -524,272 +521,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>